--- a/xlsx/北加州_intext.xlsx
+++ b/xlsx/北加州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>北加州</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%8B%89%E8%8F%B2%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -125,37 +125,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A7%E9%83%BD%E5%B8%82%E5%9C%88</t>
   </si>
   <si>
-    <t>美國大都市圈</t>
+    <t>美国大都市圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>內華達山脈 (美國)</t>
+    <t>内华达山脉 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%A1%9E%E7%B1%B3%E6%8F%90%E8%B0%B7</t>
@@ -191,13 +188,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%B4%85%E6%9C%A8</t>
   </si>
   <si>
-    <t>加州紅木</t>
+    <t>加州红木</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>雷諾 (內華達州)</t>
+    <t>雷诺 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%99%A9%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B7%AF37%E5%BA%A6%E7%B7%9A</t>
   </si>
   <si>
-    <t>北緯37度線</t>
+    <t>北纬37度线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -245,13 +242,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%96%90%E9%81%9C%E5%B7%9E</t>
   </si>
   <si>
-    <t>傑斐遜州</t>
+    <t>杰斐逊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E5%B7%9E</t>
   </si>
   <si>
-    <t>傑佛遜州</t>
+    <t>杰佛逊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
+    <t>2010年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%9C%B0%E5%8C%BA</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E9%87%91%E8%9E%8D%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山金融區</t>
+    <t>旧金山金融区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
@@ -305,97 +302,97 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國民生產總值</t>
+    <t>国民生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1303,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>13</v>
@@ -1329,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1387,10 +1384,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -1416,10 +1413,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -1445,10 +1442,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1474,10 +1471,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1503,10 +1500,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1532,10 +1529,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1561,10 +1558,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1590,10 +1587,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1619,10 +1616,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1648,10 +1645,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
         <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>40</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1677,10 +1674,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1706,10 +1703,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1735,10 +1732,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1764,10 +1761,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1793,10 +1790,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1822,10 +1819,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1851,10 +1848,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1880,10 +1877,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1909,10 +1906,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1938,10 +1935,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1967,10 +1964,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -1996,10 +1993,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2025,10 +2022,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2112,10 +2109,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2141,10 +2138,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
         <v>87</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2170,10 +2167,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" t="s">
-        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2199,10 +2196,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2228,10 +2225,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
         <v>93</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2257,10 +2254,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2286,10 +2283,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
         <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2315,10 +2312,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2344,10 +2341,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2373,10 +2370,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2402,10 +2399,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2431,10 +2428,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
         <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2460,10 +2457,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
         <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2489,10 +2486,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2518,10 +2515,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2547,10 +2544,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2576,10 +2573,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2605,10 +2602,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2634,10 +2631,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -2663,10 +2660,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2692,10 +2689,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2721,10 +2718,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2750,10 +2747,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -2779,10 +2776,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
